--- a/Code/Results/Cases/Case_5_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_176/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.338844615623145</v>
+        <v>0.6591047123922635</v>
       </c>
       <c r="C2">
-        <v>0.2112183198357513</v>
+        <v>0.06979013589212002</v>
       </c>
       <c r="D2">
-        <v>0.04795454750288197</v>
+        <v>0.07649305032681841</v>
       </c>
       <c r="E2">
-        <v>0.2700124399820751</v>
+        <v>0.1128240276633434</v>
       </c>
       <c r="F2">
-        <v>1.757507636496555</v>
+        <v>1.807478639038337</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.454362460342878</v>
+        <v>0.6515584640497707</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7097562136554174</v>
+        <v>0.3084085407963784</v>
       </c>
       <c r="N2">
-        <v>1.821228036076434</v>
+        <v>2.635021442869899</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.160087255853568</v>
+        <v>0.614129082425336</v>
       </c>
       <c r="C3">
-        <v>0.1819168018286632</v>
+        <v>0.06204465075281007</v>
       </c>
       <c r="D3">
-        <v>0.04966467074699921</v>
+        <v>0.07671788445026362</v>
       </c>
       <c r="E3">
-        <v>0.233207271572347</v>
+        <v>0.1034124664790923</v>
       </c>
       <c r="F3">
-        <v>1.614842229502088</v>
+        <v>1.775948807909671</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.257404676717442</v>
+        <v>0.601413058193998</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6133157082457856</v>
+        <v>0.2838194162092762</v>
       </c>
       <c r="N3">
-        <v>1.803948553973328</v>
+        <v>2.632067726335137</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.051979786363802</v>
+        <v>0.5869108781930663</v>
       </c>
       <c r="C4">
-        <v>0.1641792375584856</v>
+        <v>0.05731793280592967</v>
       </c>
       <c r="D4">
-        <v>0.05072542287630277</v>
+        <v>0.07685709186232259</v>
       </c>
       <c r="E4">
-        <v>0.2110692332100896</v>
+        <v>0.09770089020241102</v>
       </c>
       <c r="F4">
-        <v>1.530116299758092</v>
+        <v>1.757449805792263</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.138259432257797</v>
+        <v>0.5710057226789047</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5551189868902924</v>
+        <v>0.268903493606075</v>
       </c>
       <c r="N4">
-        <v>1.79539193042244</v>
+        <v>2.630894410618978</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.008287633248216</v>
+        <v>0.5759186639841687</v>
       </c>
       <c r="C5">
-        <v>0.1570051828417434</v>
+        <v>0.0553989287663228</v>
       </c>
       <c r="D5">
-        <v>0.05116037733058398</v>
+        <v>0.07691410927462616</v>
       </c>
       <c r="E5">
-        <v>0.2021484179818458</v>
+        <v>0.09538999018739958</v>
       </c>
       <c r="F5">
-        <v>1.496248611152566</v>
+        <v>1.750127065168215</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.090097061213783</v>
+        <v>0.5587100363281081</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5316257860308369</v>
+        <v>0.2628704109427957</v>
       </c>
       <c r="N5">
-        <v>1.792389612746263</v>
+        <v>2.630576868961796</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.001053019274764</v>
+        <v>0.5740994085054467</v>
       </c>
       <c r="C6">
-        <v>0.155816938993155</v>
+        <v>0.05508070898169137</v>
       </c>
       <c r="D6">
-        <v>0.05123276365074325</v>
+        <v>0.0769235943878801</v>
       </c>
       <c r="E6">
-        <v>0.2006727793146723</v>
+        <v>0.09500726244970537</v>
       </c>
       <c r="F6">
-        <v>1.490662939435751</v>
+        <v>1.748924142906446</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.082121660145333</v>
+        <v>0.5566741022614679</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5277372592798031</v>
+        <v>0.2618713433420083</v>
       </c>
       <c r="N6">
-        <v>1.79191946654521</v>
+        <v>2.63053382900749</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.051389137410581</v>
+        <v>0.586762231313827</v>
       </c>
       <c r="C7">
-        <v>0.164082278716009</v>
+        <v>0.05729202357890983</v>
       </c>
       <c r="D7">
-        <v>0.05073127793506149</v>
+        <v>0.07685785965099257</v>
       </c>
       <c r="E7">
-        <v>0.2109485357765806</v>
+        <v>0.09766965768800873</v>
       </c>
       <c r="F7">
-        <v>1.529656960846154</v>
+        <v>1.757350175994489</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.137608392521742</v>
+        <v>0.5708395125881509</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5548012912553517</v>
+        <v>0.2688219466259767</v>
       </c>
       <c r="N7">
-        <v>1.795349518204574</v>
+        <v>2.630889478464795</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.276833706258259</v>
+        <v>0.6435144523369729</v>
       </c>
       <c r="C8">
-        <v>0.2010564516267976</v>
+        <v>0.06711338372225839</v>
       </c>
       <c r="D8">
-        <v>0.0485419612050908</v>
+        <v>0.07657033150621739</v>
       </c>
       <c r="E8">
-        <v>0.2572169132319218</v>
+        <v>0.1095648137322627</v>
       </c>
       <c r="F8">
-        <v>1.70768112634822</v>
+        <v>1.79642818471433</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.386043277985777</v>
+        <v>0.6341886674001671</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6762711480063501</v>
+        <v>0.2998921696833179</v>
       </c>
       <c r="N8">
-        <v>1.814824114752909</v>
+        <v>2.633869860455789</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.734625092363785</v>
+        <v>0.7579806014014423</v>
       </c>
       <c r="C9">
-        <v>0.2760557308401985</v>
+        <v>0.08661038358320639</v>
       </c>
       <c r="D9">
-        <v>0.04433505189974341</v>
+        <v>0.07601575579679576</v>
       </c>
       <c r="E9">
-        <v>0.3523594447021168</v>
+        <v>0.1334376943438045</v>
       </c>
       <c r="F9">
-        <v>2.082694749749791</v>
+        <v>1.879920921771287</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.890346902600839</v>
+        <v>0.7614801266465463</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9242215788483108</v>
+        <v>0.362288387711196</v>
       </c>
       <c r="N9">
-        <v>1.870870807395221</v>
+        <v>2.644815051827678</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.084549802884965</v>
+        <v>0.8440589803890362</v>
       </c>
       <c r="C10">
-        <v>0.3334229468167962</v>
+        <v>0.1010905547005052</v>
       </c>
       <c r="D10">
-        <v>0.04130014907374768</v>
+        <v>0.07561403926779153</v>
       </c>
       <c r="E10">
-        <v>0.4261269919422404</v>
+        <v>0.1513309495337651</v>
       </c>
       <c r="F10">
-        <v>2.378836236180362</v>
+        <v>1.945500955783643</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.275842617062438</v>
+        <v>0.8569235279091743</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.114923183674357</v>
+        <v>0.4090641847685745</v>
       </c>
       <c r="N10">
-        <v>1.925352838722972</v>
+        <v>2.655996909133009</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.247703075879087</v>
+        <v>0.8836584875021458</v>
       </c>
       <c r="C11">
-        <v>0.3602023621883461</v>
+        <v>0.1077142584298372</v>
       </c>
       <c r="D11">
-        <v>0.03993302742436455</v>
+        <v>0.0754325522274506</v>
       </c>
       <c r="E11">
-        <v>0.4608266287045382</v>
+        <v>0.1595524870687512</v>
       </c>
       <c r="F11">
-        <v>2.51925481873468</v>
+        <v>1.9762678306559</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.455617045298425</v>
+        <v>0.9007731225271414</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.204189301650729</v>
+        <v>0.4305550452683207</v>
       </c>
       <c r="N11">
-        <v>1.95364083104181</v>
+        <v>2.661772659867182</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.310151276363683</v>
+        <v>0.8987179914253147</v>
       </c>
       <c r="C12">
-        <v>0.3704592134342022</v>
+        <v>0.1102279179746688</v>
       </c>
       <c r="D12">
-        <v>0.0394174556430773</v>
+        <v>0.07536401123986636</v>
       </c>
       <c r="E12">
-        <v>0.4741595348509406</v>
+        <v>0.1626778713439379</v>
       </c>
       <c r="F12">
-        <v>2.573362755827191</v>
+        <v>1.988053640294822</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.524435417870336</v>
+        <v>0.9174407350374736</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.238416139455182</v>
+        <v>0.4387242121703565</v>
       </c>
       <c r="N12">
-        <v>1.964914995884698</v>
+        <v>2.664059396719466</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.296670711535455</v>
+        <v>0.8954718025056536</v>
       </c>
       <c r="C13">
-        <v>0.3682447464378811</v>
+        <v>0.1096863136490356</v>
       </c>
       <c r="D13">
-        <v>0.03952839497044991</v>
+        <v>0.0753787645142836</v>
       </c>
       <c r="E13">
-        <v>0.4712789803413742</v>
+        <v>0.1620042224059333</v>
       </c>
       <c r="F13">
-        <v>2.561666115211693</v>
+        <v>1.985509336713733</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.509579315203382</v>
+        <v>0.9138482669618782</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.231024864048891</v>
+        <v>0.4369634469569235</v>
       </c>
       <c r="N13">
-        <v>1.962460899334928</v>
+        <v>2.663562469928792</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.25282680618983</v>
+        <v>0.8848961559833697</v>
       </c>
       <c r="C14">
-        <v>0.3610437630665047</v>
+        <v>0.1079209495268572</v>
       </c>
       <c r="D14">
-        <v>0.03989056708668404</v>
+        <v>0.07542690960509457</v>
       </c>
       <c r="E14">
-        <v>0.4619194918143563</v>
+        <v>0.1598093707382446</v>
       </c>
       <c r="F14">
-        <v>2.523686879472024</v>
+        <v>1.977234745268106</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.461263248718694</v>
+        <v>0.90214311642805</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.206996290283371</v>
+        <v>0.4312265024039448</v>
       </c>
       <c r="N14">
-        <v>1.954556738988373</v>
+        <v>2.661958792369745</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.226060823463513</v>
+        <v>0.8784266197642978</v>
       </c>
       <c r="C15">
-        <v>0.3566486363832553</v>
+        <v>0.1068403214294733</v>
       </c>
       <c r="D15">
-        <v>0.04011269166848486</v>
+        <v>0.07545642396535879</v>
       </c>
       <c r="E15">
-        <v>0.4562125684743421</v>
+        <v>0.1584665411665611</v>
       </c>
       <c r="F15">
-        <v>2.500548822274808</v>
+        <v>1.972183929869118</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.431768258761537</v>
+        <v>0.8949815604990476</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.192335242893677</v>
+        <v>0.4277165164709515</v>
       </c>
       <c r="N15">
-        <v>1.949790264972108</v>
+        <v>2.660989477408748</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.073975097443906</v>
+        <v>0.8414799938524311</v>
       </c>
       <c r="C16">
-        <v>0.3316880684888872</v>
+        <v>0.1006584288195143</v>
       </c>
       <c r="D16">
-        <v>0.04138977975644043</v>
+        <v>0.07562592544728108</v>
       </c>
       <c r="E16">
-        <v>0.4238846440253852</v>
+        <v>0.150795324681738</v>
       </c>
       <c r="F16">
-        <v>2.369783784623749</v>
+        <v>1.94350912829384</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.264191592002334</v>
+        <v>0.8540665972281829</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.10914517664385</v>
+        <v>0.4076640225996755</v>
       </c>
       <c r="N16">
-        <v>1.923579483677258</v>
+        <v>2.65563335849825</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.981756421165272</v>
+        <v>0.8189279777695617</v>
       </c>
       <c r="C17">
-        <v>0.3165625073557976</v>
+        <v>0.09687551391684224</v>
       </c>
       <c r="D17">
-        <v>0.04217680032306337</v>
+        <v>0.07573023327249384</v>
       </c>
       <c r="E17">
-        <v>0.4043643815312734</v>
+        <v>0.146110448795163</v>
       </c>
       <c r="F17">
-        <v>2.291101561263531</v>
+        <v>1.92615784811494</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.162591009016325</v>
+        <v>0.8290776494208103</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.058796772855011</v>
+        <v>0.3954172098195556</v>
       </c>
       <c r="N17">
-        <v>1.908436778379226</v>
+        <v>2.652524392396927</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.929082160014048</v>
+        <v>0.8059982311523584</v>
       </c>
       <c r="C18">
-        <v>0.3079257611401545</v>
+        <v>0.09470311771536899</v>
       </c>
       <c r="D18">
-        <v>0.04263072722131245</v>
+        <v>0.07579034634717097</v>
       </c>
       <c r="E18">
-        <v>0.3932424608204741</v>
+        <v>0.1434235137650859</v>
       </c>
       <c r="F18">
-        <v>2.246374771358077</v>
+        <v>1.916265736855195</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.104561052626195</v>
+        <v>0.8147452838876177</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.030070300213318</v>
+        <v>0.3883931201024495</v>
       </c>
       <c r="N18">
-        <v>1.900053023364876</v>
+        <v>2.650801025497586</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.911307966134899</v>
+        <v>0.8016275678138527</v>
       </c>
       <c r="C19">
-        <v>0.3050118302234068</v>
+        <v>0.09396816755074155</v>
       </c>
       <c r="D19">
-        <v>0.04278462945624906</v>
+        <v>0.07581071975624898</v>
       </c>
       <c r="E19">
-        <v>0.3894940942115781</v>
+        <v>0.1425150738912251</v>
       </c>
       <c r="F19">
-        <v>2.23131865288272</v>
+        <v>1.912931510505743</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.084980107051535</v>
+        <v>0.8098995485280227</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.020382187514521</v>
+        <v>0.3860182954256786</v>
       </c>
       <c r="N19">
-        <v>1.897268741084105</v>
+        <v>2.650228642281348</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.991534572569719</v>
+        <v>0.8213243720046819</v>
       </c>
       <c r="C20">
-        <v>0.3181659982440408</v>
+        <v>0.09727785497747732</v>
       </c>
       <c r="D20">
-        <v>0.04209288970899117</v>
+        <v>0.07571911729255643</v>
       </c>
       <c r="E20">
-        <v>0.4064312196312088</v>
+        <v>0.1466083646194534</v>
       </c>
       <c r="F20">
-        <v>2.299421866392663</v>
+        <v>1.92799582042332</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.173363597667105</v>
+        <v>0.8317335575212326</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.064131947531891</v>
+        <v>0.3967188351723507</v>
       </c>
       <c r="N20">
-        <v>1.91001461251301</v>
+        <v>2.652848634129384</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.265685951130422</v>
+        <v>0.8880007381941368</v>
       </c>
       <c r="C21">
-        <v>0.363155562934196</v>
+        <v>0.1084393318741661</v>
       </c>
       <c r="D21">
-        <v>0.0397841288098908</v>
+        <v>0.07541276319528301</v>
       </c>
       <c r="E21">
-        <v>0.4646631187774304</v>
+        <v>0.1604537219679969</v>
       </c>
       <c r="F21">
-        <v>2.534815961224808</v>
+        <v>1.979661521970257</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.475433799657509</v>
+        <v>0.9055794956545924</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.214042033714222</v>
+        <v>0.4329107354226096</v>
       </c>
       <c r="N21">
-        <v>1.95686262760384</v>
+        <v>2.662427124620194</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.448791478276291</v>
+        <v>0.9319510374988909</v>
       </c>
       <c r="C22">
-        <v>0.3932453224191761</v>
+        <v>0.1157655844965575</v>
       </c>
       <c r="D22">
-        <v>0.03828775353533942</v>
+        <v>0.07521361868617849</v>
       </c>
       <c r="E22">
-        <v>0.5038614573808005</v>
+        <v>0.1695729386689493</v>
       </c>
       <c r="F22">
-        <v>2.6941695959014</v>
+        <v>2.014215633273835</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.677236679443638</v>
+        <v>0.9542079734534923</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.314521042253659</v>
+        <v>0.4567454280979177</v>
       </c>
       <c r="N22">
-        <v>1.990789244072033</v>
+        <v>2.66926791746593</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.350670642699129</v>
+        <v>0.9084596088638932</v>
       </c>
       <c r="C23">
-        <v>0.3771165394190064</v>
+        <v>0.1118524879332767</v>
       </c>
       <c r="D23">
-        <v>0.03908517167247272</v>
+        <v>0.0753198061809357</v>
       </c>
       <c r="E23">
-        <v>0.4828257793376807</v>
+        <v>0.1646992916983478</v>
       </c>
       <c r="F23">
-        <v>2.608573962894724</v>
+        <v>1.995701146475</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.569090772023543</v>
+        <v>0.9282203552013755</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.260641842944864</v>
+        <v>0.4440076534438617</v>
       </c>
       <c r="N23">
-        <v>1.972358088050981</v>
+        <v>2.665563557624296</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.987112807453968</v>
+        <v>0.8202408509839074</v>
       </c>
       <c r="C24">
-        <v>0.3174408771277797</v>
+        <v>0.09709594895801388</v>
       </c>
       <c r="D24">
-        <v>0.04213082116911249</v>
+        <v>0.07572414237468994</v>
       </c>
       <c r="E24">
-        <v>0.4054964910890249</v>
+        <v>0.1463832367712214</v>
       </c>
       <c r="F24">
-        <v>2.295658680539105</v>
+        <v>1.927164613501532</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.168492129788405</v>
+        <v>0.8305327152614552</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.061719235973499</v>
+        <v>0.3961303181694902</v>
       </c>
       <c r="N24">
-        <v>1.909300275098317</v>
+        <v>2.652701845052064</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.608709587770306</v>
+        <v>0.726669988826643</v>
       </c>
       <c r="C25">
-        <v>0.2554273284992945</v>
+        <v>0.08130938494248596</v>
       </c>
       <c r="D25">
-        <v>0.04546365985436207</v>
+        <v>0.07616478366078372</v>
       </c>
       <c r="E25">
-        <v>0.3260348695007877</v>
+        <v>0.1269188124458438</v>
       </c>
       <c r="F25">
-        <v>1.978001265360618</v>
+        <v>1.856593735678018</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.751644728219645</v>
+        <v>0.7267107997775213</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8558498042801403</v>
+        <v>0.3452474711761369</v>
       </c>
       <c r="N25">
-        <v>1.853562522611426</v>
+        <v>2.641304851207053</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_176/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6591047123922635</v>
+        <v>1.338844615623174</v>
       </c>
       <c r="C2">
-        <v>0.06979013589212002</v>
+        <v>0.2112183198358224</v>
       </c>
       <c r="D2">
-        <v>0.07649305032681841</v>
+        <v>0.04795454750309069</v>
       </c>
       <c r="E2">
-        <v>0.1128240276633434</v>
+        <v>0.2700124399821107</v>
       </c>
       <c r="F2">
-        <v>1.807478639038337</v>
+        <v>1.757507636496555</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6515584640497707</v>
+        <v>1.454362460342821</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3084085407963784</v>
+        <v>0.7097562136554174</v>
       </c>
       <c r="N2">
-        <v>2.635021442869899</v>
+        <v>1.821228036076477</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.614129082425336</v>
+        <v>1.160087255853455</v>
       </c>
       <c r="C3">
-        <v>0.06204465075281007</v>
+        <v>0.181916801828649</v>
       </c>
       <c r="D3">
-        <v>0.07671788445026362</v>
+        <v>0.04966467074686598</v>
       </c>
       <c r="E3">
-        <v>0.1034124664790923</v>
+        <v>0.233207271572347</v>
       </c>
       <c r="F3">
-        <v>1.775948807909671</v>
+        <v>1.614842229502059</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.601413058193998</v>
+        <v>1.257404676717414</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2838194162092762</v>
+        <v>0.6133157082458141</v>
       </c>
       <c r="N3">
-        <v>2.632067726335137</v>
+        <v>1.803948553973299</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5869108781930663</v>
+        <v>1.051979786363717</v>
       </c>
       <c r="C4">
-        <v>0.05731793280592967</v>
+        <v>0.1641792375586277</v>
       </c>
       <c r="D4">
-        <v>0.07685709186232259</v>
+        <v>0.05072542287610737</v>
       </c>
       <c r="E4">
-        <v>0.09770089020241102</v>
+        <v>0.2110692332100896</v>
       </c>
       <c r="F4">
-        <v>1.757449805792263</v>
+        <v>1.530116299758149</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5710057226789047</v>
+        <v>1.138259432257826</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.268903493606075</v>
+        <v>0.5551189868902924</v>
       </c>
       <c r="N4">
-        <v>2.630894410618978</v>
+        <v>1.795391930422511</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5759186639841687</v>
+        <v>1.008287633248358</v>
       </c>
       <c r="C5">
-        <v>0.0553989287663228</v>
+        <v>0.1570051828417292</v>
       </c>
       <c r="D5">
-        <v>0.07691410927462616</v>
+        <v>0.05116037733057954</v>
       </c>
       <c r="E5">
-        <v>0.09538999018739958</v>
+        <v>0.2021484179818529</v>
       </c>
       <c r="F5">
-        <v>1.750127065168215</v>
+        <v>1.496248611152566</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5587100363281081</v>
+        <v>1.090097061213726</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2628704109427957</v>
+        <v>0.5316257860308227</v>
       </c>
       <c r="N5">
-        <v>2.630576868961796</v>
+        <v>1.792389612746319</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5740994085054467</v>
+        <v>1.001053019274906</v>
       </c>
       <c r="C6">
-        <v>0.05508070898169137</v>
+        <v>0.1558169389929986</v>
       </c>
       <c r="D6">
-        <v>0.0769235943878801</v>
+        <v>0.05123276365070772</v>
       </c>
       <c r="E6">
-        <v>0.09500726244970537</v>
+        <v>0.200672779314651</v>
       </c>
       <c r="F6">
-        <v>1.748924142906446</v>
+        <v>1.490662939435708</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5566741022614679</v>
+        <v>1.082121660145276</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2618713433420083</v>
+        <v>0.527737259279796</v>
       </c>
       <c r="N6">
-        <v>2.63053382900749</v>
+        <v>1.791919466545139</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.586762231313827</v>
+        <v>1.051389137410524</v>
       </c>
       <c r="C7">
-        <v>0.05729202357890983</v>
+        <v>0.1640822787158811</v>
       </c>
       <c r="D7">
-        <v>0.07685785965099257</v>
+        <v>0.05073127793523646</v>
       </c>
       <c r="E7">
-        <v>0.09766965768800873</v>
+        <v>0.2109485357765948</v>
       </c>
       <c r="F7">
-        <v>1.757350175994489</v>
+        <v>1.529656960846168</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5708395125881509</v>
+        <v>1.137608392521742</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2688219466259767</v>
+        <v>0.5548012912553588</v>
       </c>
       <c r="N7">
-        <v>2.630889478464795</v>
+        <v>1.795349518204574</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6435144523369729</v>
+        <v>1.276833706258174</v>
       </c>
       <c r="C8">
-        <v>0.06711338372225839</v>
+        <v>0.2010564516269255</v>
       </c>
       <c r="D8">
-        <v>0.07657033150621739</v>
+        <v>0.04854196120497356</v>
       </c>
       <c r="E8">
-        <v>0.1095648137322627</v>
+        <v>0.257216913231872</v>
       </c>
       <c r="F8">
-        <v>1.79642818471433</v>
+        <v>1.70768112634822</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6341886674001671</v>
+        <v>1.386043277985863</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2998921696833179</v>
+        <v>0.6762711480063501</v>
       </c>
       <c r="N8">
-        <v>2.633869860455789</v>
+        <v>1.814824114752966</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7579806014014423</v>
+        <v>1.7346250923637</v>
       </c>
       <c r="C9">
-        <v>0.08661038358320639</v>
+        <v>0.2760557308401985</v>
       </c>
       <c r="D9">
-        <v>0.07601575579679576</v>
+        <v>0.04433505189986064</v>
       </c>
       <c r="E9">
-        <v>0.1334376943438045</v>
+        <v>0.3523594447021381</v>
       </c>
       <c r="F9">
-        <v>1.879920921771287</v>
+        <v>2.08269474974982</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7614801266465463</v>
+        <v>1.890346902600868</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.362288387711196</v>
+        <v>0.9242215788483321</v>
       </c>
       <c r="N9">
-        <v>2.644815051827678</v>
+        <v>1.870870807395249</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8440589803890362</v>
+        <v>2.084549802885022</v>
       </c>
       <c r="C10">
-        <v>0.1010905547005052</v>
+        <v>0.3334229468167962</v>
       </c>
       <c r="D10">
-        <v>0.07561403926779153</v>
+        <v>0.04130014907376101</v>
       </c>
       <c r="E10">
-        <v>0.1513309495337651</v>
+        <v>0.4261269919422475</v>
       </c>
       <c r="F10">
-        <v>1.945500955783643</v>
+        <v>2.378836236180376</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8569235279091743</v>
+        <v>2.275842617062466</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4090641847685745</v>
+        <v>1.11492318367435</v>
       </c>
       <c r="N10">
-        <v>2.655996909133009</v>
+        <v>1.925352838723001</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8836584875021458</v>
+        <v>2.247703075879087</v>
       </c>
       <c r="C11">
-        <v>0.1077142584298372</v>
+        <v>0.3602023621886019</v>
       </c>
       <c r="D11">
-        <v>0.0754325522274506</v>
+        <v>0.03993302742447913</v>
       </c>
       <c r="E11">
-        <v>0.1595524870687512</v>
+        <v>0.4608266287045453</v>
       </c>
       <c r="F11">
-        <v>1.9762678306559</v>
+        <v>2.51925481873468</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9007731225271414</v>
+        <v>2.455617045298368</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4305550452683207</v>
+        <v>1.204189301650729</v>
       </c>
       <c r="N11">
-        <v>2.661772659867182</v>
+        <v>1.95364083104181</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8987179914253147</v>
+        <v>2.310151276363683</v>
       </c>
       <c r="C12">
-        <v>0.1102279179746688</v>
+        <v>0.3704592134340032</v>
       </c>
       <c r="D12">
-        <v>0.07536401123986636</v>
+        <v>0.03941745564318921</v>
       </c>
       <c r="E12">
-        <v>0.1626778713439379</v>
+        <v>0.4741595348509335</v>
       </c>
       <c r="F12">
-        <v>1.988053640294822</v>
+        <v>2.573362755827191</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9174407350374736</v>
+        <v>2.524435417870365</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4387242121703565</v>
+        <v>1.238416139455211</v>
       </c>
       <c r="N12">
-        <v>2.664059396719466</v>
+        <v>1.964914995884698</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8954718025056536</v>
+        <v>2.296670711535398</v>
       </c>
       <c r="C13">
-        <v>0.1096863136490356</v>
+        <v>0.3682447464378811</v>
       </c>
       <c r="D13">
-        <v>0.0753787645142836</v>
+        <v>0.03952839497034244</v>
       </c>
       <c r="E13">
-        <v>0.1620042224059333</v>
+        <v>0.4712789803413813</v>
       </c>
       <c r="F13">
-        <v>1.985509336713733</v>
+        <v>2.561666115211665</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9138482669618782</v>
+        <v>2.509579315203439</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4369634469569235</v>
+        <v>1.231024864048891</v>
       </c>
       <c r="N13">
-        <v>2.663562469928792</v>
+        <v>1.962460899334957</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8848961559833697</v>
+        <v>2.252826806189773</v>
       </c>
       <c r="C14">
-        <v>0.1079209495268572</v>
+        <v>0.3610437630665047</v>
       </c>
       <c r="D14">
-        <v>0.07542690960509457</v>
+        <v>0.03989056708678351</v>
       </c>
       <c r="E14">
-        <v>0.1598093707382446</v>
+        <v>0.4619194918143634</v>
       </c>
       <c r="F14">
-        <v>1.977234745268106</v>
+        <v>2.523686879472024</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.90214311642805</v>
+        <v>2.461263248718694</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4312265024039448</v>
+        <v>1.206996290283371</v>
       </c>
       <c r="N14">
-        <v>2.661958792369745</v>
+        <v>1.954556738988316</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8784266197642978</v>
+        <v>2.226060823463627</v>
       </c>
       <c r="C15">
-        <v>0.1068403214294733</v>
+        <v>0.3566486363832837</v>
       </c>
       <c r="D15">
-        <v>0.07545642396535879</v>
+        <v>0.04011269166869802</v>
       </c>
       <c r="E15">
-        <v>0.1584665411665611</v>
+        <v>0.4562125684743634</v>
       </c>
       <c r="F15">
-        <v>1.972183929869118</v>
+        <v>2.500548822274808</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8949815604990476</v>
+        <v>2.431768258761537</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4277165164709515</v>
+        <v>1.192335242893691</v>
       </c>
       <c r="N15">
-        <v>2.660989477408748</v>
+        <v>1.949790264972052</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8414799938524311</v>
+        <v>2.073975097443963</v>
       </c>
       <c r="C16">
-        <v>0.1006584288195143</v>
+        <v>0.3316880684888872</v>
       </c>
       <c r="D16">
-        <v>0.07562592544728108</v>
+        <v>0.04138977975655322</v>
       </c>
       <c r="E16">
-        <v>0.150795324681738</v>
+        <v>0.4238846440253567</v>
       </c>
       <c r="F16">
-        <v>1.94350912829384</v>
+        <v>2.369783784623735</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8540665972281829</v>
+        <v>2.264191592002277</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4076640225996755</v>
+        <v>1.10914517664385</v>
       </c>
       <c r="N16">
-        <v>2.65563335849825</v>
+        <v>1.92357948367723</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8189279777695617</v>
+        <v>1.981756421165244</v>
       </c>
       <c r="C17">
-        <v>0.09687551391684224</v>
+        <v>0.3165625073553429</v>
       </c>
       <c r="D17">
-        <v>0.07573023327249384</v>
+        <v>0.04217680032296567</v>
       </c>
       <c r="E17">
-        <v>0.146110448795163</v>
+        <v>0.4043643815313089</v>
       </c>
       <c r="F17">
-        <v>1.92615784811494</v>
+        <v>2.291101561263531</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8290776494208103</v>
+        <v>2.162591009016296</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3954172098195556</v>
+        <v>1.058796772855011</v>
       </c>
       <c r="N17">
-        <v>2.652524392396927</v>
+        <v>1.908436778379297</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8059982311523584</v>
+        <v>1.929082160013934</v>
       </c>
       <c r="C18">
-        <v>0.09470311771536899</v>
+        <v>0.3079257611399271</v>
       </c>
       <c r="D18">
-        <v>0.07579034634717097</v>
+        <v>0.04263072722132666</v>
       </c>
       <c r="E18">
-        <v>0.1434235137650859</v>
+        <v>0.3932424608204883</v>
       </c>
       <c r="F18">
-        <v>1.916265736855195</v>
+        <v>2.246374771358077</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8147452838876177</v>
+        <v>2.104561052626138</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3883931201024495</v>
+        <v>1.03007030021331</v>
       </c>
       <c r="N18">
-        <v>2.650801025497586</v>
+        <v>1.900053023364933</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8016275678138527</v>
+        <v>1.911307966134899</v>
       </c>
       <c r="C19">
-        <v>0.09396816755074155</v>
+        <v>0.3050118302234353</v>
       </c>
       <c r="D19">
-        <v>0.07581071975624898</v>
+        <v>0.04278462945636807</v>
       </c>
       <c r="E19">
-        <v>0.1425150738912251</v>
+        <v>0.3894940942115923</v>
       </c>
       <c r="F19">
-        <v>1.912931510505743</v>
+        <v>2.23131865288272</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8098995485280227</v>
+        <v>2.08498010705145</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3860182954256786</v>
+        <v>1.020382187514521</v>
       </c>
       <c r="N19">
-        <v>2.650228642281348</v>
+        <v>1.897268741084119</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8213243720046819</v>
+        <v>1.991534572569748</v>
       </c>
       <c r="C20">
-        <v>0.09727785497747732</v>
+        <v>0.3181659982442397</v>
       </c>
       <c r="D20">
-        <v>0.07571911729255643</v>
+        <v>0.04209288970875225</v>
       </c>
       <c r="E20">
-        <v>0.1466083646194534</v>
+        <v>0.4064312196312514</v>
       </c>
       <c r="F20">
-        <v>1.92799582042332</v>
+        <v>2.299421866392649</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8317335575212326</v>
+        <v>2.173363597667077</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3967188351723507</v>
+        <v>1.064131947531919</v>
       </c>
       <c r="N20">
-        <v>2.652848634129384</v>
+        <v>1.910014612512981</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8880007381941368</v>
+        <v>2.265685951130422</v>
       </c>
       <c r="C21">
-        <v>0.1084393318741661</v>
+        <v>0.3631555629337697</v>
       </c>
       <c r="D21">
-        <v>0.07541276319528301</v>
+        <v>0.03978412881013149</v>
       </c>
       <c r="E21">
-        <v>0.1604537219679969</v>
+        <v>0.4646631187774304</v>
       </c>
       <c r="F21">
-        <v>1.979661521970257</v>
+        <v>2.534815961224808</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9055794956545924</v>
+        <v>2.475433799657594</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4329107354226096</v>
+        <v>1.21404203371425</v>
       </c>
       <c r="N21">
-        <v>2.662427124620194</v>
+        <v>1.95686262760384</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9319510374988909</v>
+        <v>2.448791478276235</v>
       </c>
       <c r="C22">
-        <v>0.1157655844965575</v>
+        <v>0.3932453224194035</v>
       </c>
       <c r="D22">
-        <v>0.07521361868617849</v>
+        <v>0.03828775353568137</v>
       </c>
       <c r="E22">
-        <v>0.1695729386689493</v>
+        <v>0.5038614573807649</v>
       </c>
       <c r="F22">
-        <v>2.014215633273835</v>
+        <v>2.6941695959014</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9542079734534923</v>
+        <v>2.677236679443638</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4567454280979177</v>
+        <v>1.314521042253645</v>
       </c>
       <c r="N22">
-        <v>2.66926791746593</v>
+        <v>1.990789244072062</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9084596088638932</v>
+        <v>2.350670642699185</v>
       </c>
       <c r="C23">
-        <v>0.1118524879332767</v>
+        <v>0.377116539418779</v>
       </c>
       <c r="D23">
-        <v>0.0753198061809357</v>
+        <v>0.03908517167257308</v>
       </c>
       <c r="E23">
-        <v>0.1646992916983478</v>
+        <v>0.4828257793377233</v>
       </c>
       <c r="F23">
-        <v>1.995701146475</v>
+        <v>2.608573962894724</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9282203552013755</v>
+        <v>2.569090772023685</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4440076534438617</v>
+        <v>1.26064184294485</v>
       </c>
       <c r="N23">
-        <v>2.665563557624296</v>
+        <v>1.972358088050981</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8202408509839074</v>
+        <v>1.987112807453968</v>
       </c>
       <c r="C24">
-        <v>0.09709594895801388</v>
+        <v>0.3174408771277228</v>
       </c>
       <c r="D24">
-        <v>0.07572414237468994</v>
+        <v>0.04213082116910272</v>
       </c>
       <c r="E24">
-        <v>0.1463832367712214</v>
+        <v>0.405496491088968</v>
       </c>
       <c r="F24">
-        <v>1.927164613501532</v>
+        <v>2.295658680539134</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8305327152614552</v>
+        <v>2.168492129788376</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3961303181694902</v>
+        <v>1.061719235973484</v>
       </c>
       <c r="N24">
-        <v>2.652701845052064</v>
+        <v>1.909300275098317</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.726669988826643</v>
+        <v>1.608709587770363</v>
       </c>
       <c r="C25">
-        <v>0.08130938494248596</v>
+        <v>0.2554273284995077</v>
       </c>
       <c r="D25">
-        <v>0.07616478366078372</v>
+        <v>0.04546365985458944</v>
       </c>
       <c r="E25">
-        <v>0.1269188124458438</v>
+        <v>0.3260348695007949</v>
       </c>
       <c r="F25">
-        <v>1.856593735678018</v>
+        <v>1.978001265360604</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7267107997775213</v>
+        <v>1.751644728219617</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3452474711761369</v>
+        <v>0.8558498042801546</v>
       </c>
       <c r="N25">
-        <v>2.641304851207053</v>
+        <v>1.853562522611426</v>
       </c>
       <c r="O25">
         <v>0</v>
